--- a/DatabaseUpdate/ExcelFiles/Permissions.xlsx
+++ b/DatabaseUpdate/ExcelFiles/Permissions.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Permissions Data" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Data" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,152 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <x:si>
+    <x:t>Id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Доступ к модулю "Информация о пациенте"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Доступ к модулю "Расписание"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Доступ к модулю "Редактор расписания"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Доступ к модулю "Администрирование"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Доступ к модулю "Договора с юридическими лицами"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Доступ к модулю "Комиссии"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Доступ к модулю "Статистика"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Редактирование назначений</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Редактирование расписания</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Удаление временных назначений</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отображать все решения комиссии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Удалить протокол комиссии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Удалять решение комиссии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Редактировать состав комиссии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Редактировать талон пациента</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Удалить талон пациента</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Изменить родительский случай</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Использовать закрытые случаи</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Изменить кабинет услуги</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Создать а/к</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Удалить а/к</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Создание договора</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,12 +508,266 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:C23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
